--- a/app/Licenciatura_em_Ciencias_de_Informacao.xlsx
+++ b/app/Licenciatura_em_Ciencias_de_Informacao.xlsx
@@ -17,25 +17,23 @@
     <sheet name="20150846" sheetId="7" r:id="rId10"/>
     <sheet name="20150843" sheetId="8" r:id="rId11"/>
     <sheet name="20150839" sheetId="9" r:id="rId12"/>
-    <sheet name="20154395" sheetId="10" r:id="rId13"/>
-    <sheet name="20150844" sheetId="11" r:id="rId14"/>
-    <sheet name="20150836" sheetId="12" r:id="rId15"/>
-    <sheet name="20150834" sheetId="13" r:id="rId16"/>
-    <sheet name="20150606" sheetId="14" r:id="rId17"/>
-    <sheet name="20150842" sheetId="15" r:id="rId18"/>
-    <sheet name="20150828" sheetId="16" r:id="rId19"/>
-    <sheet name="20150838" sheetId="17" r:id="rId20"/>
-    <sheet name="20150833" sheetId="18" r:id="rId21"/>
-    <sheet name="20150837" sheetId="19" r:id="rId22"/>
-    <sheet name="20150605" sheetId="20" r:id="rId23"/>
-    <sheet name="20154396" sheetId="21" r:id="rId24"/>
-    <sheet name="20150840" sheetId="22" r:id="rId25"/>
-    <sheet name="20150835" sheetId="23" r:id="rId26"/>
-    <sheet name="20150829" sheetId="24" r:id="rId27"/>
-    <sheet name="20150604" sheetId="25" r:id="rId28"/>
-    <sheet name="20150845" sheetId="26" r:id="rId29"/>
-    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
-    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
+    <sheet name="20150844" sheetId="10" r:id="rId13"/>
+    <sheet name="20150836" sheetId="11" r:id="rId14"/>
+    <sheet name="20150834" sheetId="12" r:id="rId15"/>
+    <sheet name="20150606" sheetId="13" r:id="rId16"/>
+    <sheet name="20150842" sheetId="14" r:id="rId17"/>
+    <sheet name="20150828" sheetId="15" r:id="rId18"/>
+    <sheet name="20150838" sheetId="16" r:id="rId19"/>
+    <sheet name="20150833" sheetId="17" r:id="rId20"/>
+    <sheet name="20150837" sheetId="18" r:id="rId21"/>
+    <sheet name="20150605" sheetId="19" r:id="rId22"/>
+    <sheet name="20150840" sheetId="20" r:id="rId23"/>
+    <sheet name="20150835" sheetId="21" r:id="rId24"/>
+    <sheet name="20150829" sheetId="22" r:id="rId25"/>
+    <sheet name="20150604" sheetId="23" r:id="rId26"/>
+    <sheet name="20150845" sheetId="24" r:id="rId27"/>
+    <sheet name="Sheet2" sheetId="25" r:id="rId28"/>
+    <sheet name="Sheet3" sheetId="26" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -192,9 +190,6 @@
     <t>LuÍsa Jaime Sitoe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -231,9 +226,6 @@
     <t>Rabeca JosÃ© Nhapele</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102271115I</t>
   </si>
   <si>
@@ -258,9 +250,6 @@
     <t>Floriana Nhatela Monteiro</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -288,9 +277,6 @@
     <t>Lucinda Arnaldo Matine</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110101358507M</t>
   </si>
   <si>
@@ -339,9 +325,6 @@
     <t>Arminda Filipe Neves</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100558228P</t>
   </si>
   <si>
@@ -393,93 +376,87 @@
     <t>+258827030351</t>
   </si>
   <si>
-    <t>Maungue</t>
-  </si>
-  <si>
-    <t>Ligia Maria</t>
+    <t>Mate</t>
+  </si>
+  <si>
+    <t>Salome Deolinda</t>
+  </si>
+  <si>
+    <t>1990-01-28</t>
+  </si>
+  <si>
+    <t>Fernando Jose Mate</t>
+  </si>
+  <si>
+    <t>Deolinda Maria De Fatima</t>
+  </si>
+  <si>
+    <t>100102145925B</t>
+  </si>
+  <si>
+    <t>+258845032582</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Lhanguene</t>
+  </si>
+  <si>
+    <t>ManhiÇa</t>
+  </si>
+  <si>
+    <t>Maria Custodia Mondlane</t>
+  </si>
+  <si>
+    <t>1997-09-08</t>
+  </si>
+  <si>
+    <t>Januario Armando ManhiÇa</t>
+  </si>
+  <si>
+    <t>Ester Jaime Mondlane</t>
+  </si>
+  <si>
+    <t>110202328934A</t>
+  </si>
+  <si>
+    <t>+258845943922</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Noroeste 1</t>
+  </si>
+  <si>
+    <t>Mangamela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Veronica Rafael </t>
+  </si>
+  <si>
+    <t>1995-02-25</t>
+  </si>
+  <si>
+    <t>Rafael Joaquim</t>
+  </si>
+  <si>
+    <t>Veronica C.c. Mandlate</t>
+  </si>
+  <si>
+    <t>110101359025Q</t>
+  </si>
+  <si>
+    <t>+258826631698</t>
+  </si>
+  <si>
+    <t>Outra - Prov Maputo</t>
+  </si>
+  <si>
+    <t>Mahumanef</t>
+  </si>
+  <si>
+    <t>Abguel Eufrasio</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Mate</t>
-  </si>
-  <si>
-    <t>Salome Deolinda</t>
-  </si>
-  <si>
-    <t>1990-01-28</t>
-  </si>
-  <si>
-    <t>Fernando Jose Mate</t>
-  </si>
-  <si>
-    <t>Deolinda Maria De Fatima</t>
-  </si>
-  <si>
-    <t>100102145925B</t>
-  </si>
-  <si>
-    <t>+258845032582</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Lhanguene</t>
-  </si>
-  <si>
-    <t>ManhiÇa</t>
-  </si>
-  <si>
-    <t>Maria Custodia Mondlane</t>
-  </si>
-  <si>
-    <t>1997-09-08</t>
-  </si>
-  <si>
-    <t>Januario Armando ManhiÇa</t>
-  </si>
-  <si>
-    <t>Ester Jaime Mondlane</t>
-  </si>
-  <si>
-    <t>110202328934A</t>
-  </si>
-  <si>
-    <t>+258845943922</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Noroeste 1</t>
-  </si>
-  <si>
-    <t>Mangamela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angela Veronica Rafael </t>
-  </si>
-  <si>
-    <t>1995-02-25</t>
-  </si>
-  <si>
-    <t>Rafael Joaquim</t>
-  </si>
-  <si>
-    <t>Veronica C.c. Mandlate</t>
-  </si>
-  <si>
-    <t>110101359025Q</t>
-  </si>
-  <si>
-    <t>+258826631698</t>
-  </si>
-  <si>
-    <t>Outra - Prov Maputo</t>
-  </si>
-  <si>
-    <t>Mahumanef</t>
-  </si>
-  <si>
-    <t>Abguel Eufrasio</t>
-  </si>
-  <si>
     <t>Magaia</t>
   </si>
   <si>
@@ -495,9 +472,6 @@
     <t>Margarida Olimpia Xavier</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110201433153M</t>
   </si>
   <si>
@@ -558,9 +532,6 @@
     <t>Maria Chaibo</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060100823264Q</t>
   </si>
   <si>
@@ -595,12 +566,6 @@
   </si>
   <si>
     <t>Arquimedes Gabriel</t>
-  </si>
-  <si>
-    <t>Cossa</t>
-  </si>
-  <si>
-    <t>Selso Francisco</t>
   </si>
   <si>
     <t>Chichava</t>
@@ -1874,7 +1839,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1924,7 +1891,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154395</v>
+        <v>20150844</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -1948,7 +1915,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1964,7 +1931,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1979,7 +1946,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -1993,7 +1962,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2007,7 +1978,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -2028,7 +2001,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -2037,14 +2012,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -2054,13 +2033,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -2155,7 +2138,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2181,7 +2164,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2010</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -2195,7 +2180,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -2497,7 +2484,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150844</v>
+        <v>20150836</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2600,9 +2587,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2610,7 +2595,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2621,7 +2606,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2630,7 +2615,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2642,7 +2627,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2773,7 +2758,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3092,7 +3077,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150836</v>
+        <v>20150834</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3195,9 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3205,7 +3188,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3216,7 +3199,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3225,7 +3208,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3237,7 +3220,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3368,7 +3351,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3687,7 +3670,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150834</v>
+        <v>20150606</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3742,9 +3725,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -3758,9 +3739,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -3774,9 +3753,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -3790,18 +3767,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -3810,18 +3783,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -3831,17 +3800,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -3936,7 +3901,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3962,9 +3927,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -3978,9 +3941,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -4282,7 +4243,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150606</v>
+        <v>20150842</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4306,7 +4267,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4322,7 +4283,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4337,7 +4298,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -4351,7 +4314,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -4365,7 +4330,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4386,7 +4353,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -4395,14 +4364,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -4412,13 +4385,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -4513,7 +4490,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4539,7 +4516,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -4553,7 +4532,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -4855,7 +4836,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150842</v>
+        <v>20150828</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4958,9 +4939,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4968,7 +4947,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4979,7 +4958,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4988,7 +4967,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5000,7 +4979,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5008,7 +4987,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5104,7 +5083,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5131,7 +5110,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5147,7 +5126,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5450,7 +5429,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150828</v>
+        <v>20150838</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5474,7 +5453,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5490,7 +5469,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5506,7 +5485,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5522,7 +5501,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5538,7 +5517,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5553,9 +5532,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5563,7 +5540,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5574,7 +5551,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5583,7 +5560,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5595,7 +5572,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5603,7 +5580,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5699,7 +5676,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5726,7 +5703,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5742,7 +5719,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6045,7 +6022,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150838</v>
+        <v>20150833</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6069,7 +6046,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6085,7 +6062,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6101,7 +6078,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6117,7 +6094,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6133,7 +6110,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6148,9 +6125,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6158,7 +6133,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6169,7 +6144,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6178,7 +6153,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6190,7 +6165,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6198,7 +6173,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6294,7 +6269,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6321,7 +6296,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6337,7 +6312,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6640,7 +6615,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150833</v>
+        <v>20150837</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6743,9 +6718,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>171</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6753,7 +6726,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6764,7 +6737,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6773,7 +6746,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6785,7 +6758,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6793,7 +6766,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6889,7 +6862,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6932,7 +6905,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7235,7 +7208,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150837</v>
+        <v>20150605</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7259,7 +7232,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7275,7 +7248,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7290,9 +7263,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -7306,9 +7277,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7322,9 +7291,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>179</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7338,18 +7305,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -7358,18 +7321,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7379,17 +7338,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7484,7 +7439,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7510,9 +7465,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7526,9 +7479,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7933,9 +7884,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7943,7 +7892,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7954,7 +7903,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7963,7 +7912,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7975,7 +7924,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7983,7 +7932,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8079,7 +8028,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8122,7 +8071,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8425,7 +8374,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150605</v>
+        <v>20150840</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8449,7 +8398,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8465,7 +8414,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8480,7 +8429,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8494,7 +8445,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8508,7 +8461,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8529,7 +8484,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8538,14 +8495,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8555,13 +8516,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -8656,7 +8621,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8682,7 +8647,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8696,7 +8663,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8946,7 +8915,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -8996,7 +8967,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154396</v>
+        <v>20150835</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9020,7 +8991,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9036,7 +9007,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9051,7 +9022,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>184</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9065,7 +9038,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9079,7 +9054,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9100,7 +9077,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9109,14 +9088,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -9126,13 +9109,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -9227,7 +9214,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9253,7 +9240,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -9267,7 +9256,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9569,7 +9560,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150840</v>
+        <v>20150829</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9593,7 +9584,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9609,7 +9600,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9625,7 +9616,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9641,7 +9632,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9657,7 +9648,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9672,9 +9663,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9682,7 +9671,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9693,7 +9682,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9702,7 +9691,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9714,15 +9703,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>191</v>
+      <c r="H17" s="20">
+        <v>2684673</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9818,7 +9807,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9845,7 +9834,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9861,7 +9850,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10164,7 +10153,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150835</v>
+        <v>20150604</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10188,7 +10177,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10204,7 +10193,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10219,9 +10208,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10235,9 +10222,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10251,9 +10236,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>197</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10267,18 +10250,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10287,18 +10266,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10308,17 +10283,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10413,7 +10384,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10439,9 +10410,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10455,9 +10424,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10759,7 +10726,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150829</v>
+        <v>20150845</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10783,7 +10750,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10799,7 +10766,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10815,7 +10782,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10831,7 +10798,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10847,7 +10814,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10862,9 +10829,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10872,7 +10837,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10883,7 +10848,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10892,7 +10857,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10904,15 +10869,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2684673</v>
+      <c r="H17" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11008,7 +10973,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11035,7 +11000,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11051,7 +11016,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11254,1174 +11219,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150604</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150845</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -12445,7 +11242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12602,7 +11399,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12618,7 +11415,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12634,7 +11431,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12650,7 +11447,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12666,7 +11463,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12681,9 +11478,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12691,7 +11486,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12702,7 +11497,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12711,7 +11506,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12723,7 +11518,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12731,7 +11526,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12827,7 +11622,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12870,7 +11665,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13197,7 +11992,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13213,7 +12008,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13229,7 +12024,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13245,7 +12040,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13261,7 +12056,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13276,9 +12071,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13286,7 +12079,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13297,7 +12090,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13306,7 +12099,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13318,7 +12111,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13326,7 +12119,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13422,7 +12215,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13465,7 +12258,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13792,7 +12585,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13808,7 +12601,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13824,7 +12617,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13840,7 +12633,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13856,7 +12649,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13871,9 +12664,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13881,7 +12672,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13892,7 +12683,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13901,7 +12692,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13913,7 +12704,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13921,7 +12712,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14017,7 +12808,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14060,7 +12851,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14387,7 +13178,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14403,7 +13194,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14419,7 +13210,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14435,7 +13226,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14451,7 +13242,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14466,9 +13257,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14476,7 +13265,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14487,7 +13276,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14496,7 +13285,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14508,7 +13297,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14612,7 +13401,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14655,7 +13444,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14982,7 +13771,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14998,7 +13787,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15014,7 +13803,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15030,7 +13819,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15046,7 +13835,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15061,9 +13850,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15071,7 +13858,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15082,7 +13869,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15091,7 +13878,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15103,7 +13890,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15111,7 +13898,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15207,7 +13994,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15250,7 +14037,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15577,7 +14364,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15593,7 +14380,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15609,7 +14396,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15625,7 +14412,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15641,7 +14428,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15656,9 +14443,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15666,7 +14451,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15677,7 +14462,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15686,7 +14471,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15698,7 +14483,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15706,7 +14491,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15802,7 +14587,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15845,7 +14630,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16172,7 +14957,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16188,7 +14973,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16204,7 +14989,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16220,7 +15005,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16236,7 +15021,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16251,9 +15036,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16261,7 +15044,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16272,7 +15055,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16281,7 +15064,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16293,7 +15076,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16301,7 +15084,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16397,7 +15180,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16440,7 +15223,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
